--- a/Java training plan .xlsx
+++ b/Java training plan .xlsx
@@ -70,12 +70,6 @@
     <t>1. OOP and SOLID principle</t>
   </si>
   <si>
-    <t>- Understand more on OOP
-- Read through SOLID principle
-- Understand why we need that
-- How to apply</t>
-  </si>
-  <si>
     <t>JAVA CORE</t>
   </si>
   <si>
@@ -534,8 +528,39 @@
         <rFont val="&quot;Times New Roman&quot;"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> and SOLID</t>
+      <t xml:space="preserve"> </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="&quot;Times New Roman&quot;"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="&quot;Times New Roman&quot;"/>
+      </rPr>
+      <t>SOLID</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Understand more on OOP
+- Read through SOLID principle
+- Understand why we need that
+- How to apply</t>
   </si>
 </sst>
 </file>
@@ -794,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -899,6 +924,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,56 +978,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +998,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,7 +1353,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -1352,24 +1380,24 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="58"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="6"/>
@@ -1380,17 +1408,17 @@
         <f>SUM(E4:E53)</f>
         <v>16.75</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="5"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="61"/>
+      <c r="P2" s="58"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1425,13 +1453,13 @@
       <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="61"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -1445,11 +1473,11 @@
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="43">
         <v>1.5</v>
@@ -1483,640 +1511,640 @@
       <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:25" ht="15">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="E5" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="64">
+        <v>44510</v>
+      </c>
+      <c r="H5" s="77">
+        <v>44510</v>
+      </c>
+      <c r="I5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="64">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="65">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="15">
+      <c r="A6" s="84"/>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="15">
+      <c r="A7" s="84"/>
+      <c r="B7" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="15">
+      <c r="A8" s="84"/>
+      <c r="B8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:25" ht="15">
+      <c r="A9" s="84"/>
+      <c r="B9" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="15">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="15">
+      <c r="A11" s="84"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="63">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="64">
         <v>44510</v>
       </c>
-      <c r="H5" s="66">
-        <v>44510</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="74" t="s">
+      <c r="H12" s="77">
+        <v>44511</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:25" ht="15">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="64">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="65">
-        <v>44510</v>
-      </c>
-      <c r="H12" s="66">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:25" ht="15">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:25" ht="15">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="17"/>
+    </row>
+    <row r="16" spans="1:25" ht="15">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:21" ht="15">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" ht="15">
+      <c r="A18" s="84"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" ht="15">
+      <c r="A19" s="84"/>
+      <c r="B19" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="64">
         <v>44511</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" ht="15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" ht="15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" ht="15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" ht="15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="17"/>
-    </row>
-    <row r="17" spans="1:21" ht="15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="17"/>
-    </row>
-    <row r="18" spans="1:21" ht="15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="17"/>
-    </row>
-    <row r="19" spans="1:21" ht="15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="63" t="s">
+      <c r="H19" s="77">
+        <v>44512</v>
+      </c>
+      <c r="I19" s="78"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="1:21" ht="15">
+      <c r="A20" s="84"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="65">
-        <v>44511</v>
-      </c>
-      <c r="H19" s="66">
-        <v>44512</v>
-      </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="1:21" ht="15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" ht="15">
+      <c r="A21" s="84"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" ht="15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" ht="15">
+      <c r="A22" s="84"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="17"/>
-    </row>
-    <row r="22" spans="1:21" ht="15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" ht="15">
+      <c r="A23" s="84"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="17"/>
-    </row>
-    <row r="23" spans="1:21" ht="15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="80"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" ht="15">
+      <c r="A24" s="84"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="17"/>
-    </row>
-    <row r="24" spans="1:21" ht="15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="80"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" ht="15">
+      <c r="A25" s="84"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="17"/>
-    </row>
-    <row r="25" spans="1:21" ht="15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" ht="15">
+      <c r="A26" s="84"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="17"/>
-    </row>
-    <row r="26" spans="1:21" ht="15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="13">
@@ -2146,15 +2174,15 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="45">
-      <c r="A27" s="62"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="E27" s="13">
         <v>0.25</v>
@@ -2170,7 +2198,7 @@
         <v>44515</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -2185,12 +2213,12 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="30">
-      <c r="A28" s="62"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13">
@@ -2207,7 +2235,7 @@
         <v>44515</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -2222,12 +2250,12 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="30">
-      <c r="A29" s="62"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13">
@@ -2244,7 +2272,7 @@
         <v>44515</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -2259,15 +2287,15 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="30">
-      <c r="A30" s="62"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="E30" s="13">
         <v>0.5</v>
@@ -2296,15 +2324,15 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="30">
-      <c r="A31" s="62"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="13">
         <v>0.5</v>
@@ -2333,471 +2361,471 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="15.75">
-      <c r="A32" s="62"/>
-      <c r="B32" s="82" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="D32" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="E32" s="63">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="64">
+        <v>44518</v>
+      </c>
+      <c r="H32" s="64">
+        <v>44518</v>
+      </c>
+      <c r="I32" s="69"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75">
+      <c r="A33" s="84"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="64">
-        <v>1</v>
-      </c>
-      <c r="F32" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="65">
-        <v>44518</v>
-      </c>
-      <c r="H32" s="65">
-        <v>44518</v>
-      </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75">
-      <c r="A33" s="62"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75">
+      <c r="A34" s="84"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75">
-      <c r="A34" s="62"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="26" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" ht="15">
+      <c r="A35" s="84"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" ht="15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="27" t="s">
+      <c r="D35" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" ht="15">
+      <c r="A36" s="84"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" ht="15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="27" t="s">
+      <c r="D36" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" ht="15">
+      <c r="A37" s="84"/>
+      <c r="B37" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" ht="15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="79" t="s">
+      <c r="C37" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="E37" s="63">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="64">
+        <v>44519</v>
+      </c>
+      <c r="H37" s="64">
+        <v>44519</v>
+      </c>
+      <c r="I37" s="69"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" ht="15">
+      <c r="A38" s="84"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="64">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="65">
-        <v>44519</v>
-      </c>
-      <c r="H37" s="65">
-        <v>44519</v>
-      </c>
-      <c r="I37" s="76"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" ht="15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" ht="15">
+      <c r="A39" s="84"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" ht="15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A40" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A40" s="84" t="s">
+      <c r="B40" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="C40" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="D40" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="E40" s="63">
+        <v>2</v>
+      </c>
+      <c r="F40" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="64">
+        <v>44522</v>
+      </c>
+      <c r="H40" s="64">
+        <v>44523</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" ht="15">
+      <c r="A41" s="66"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="64">
-        <v>2</v>
-      </c>
-      <c r="F40" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G40" s="65">
-        <v>44522</v>
-      </c>
-      <c r="H40" s="65">
-        <v>44523</v>
-      </c>
-      <c r="I40" s="76"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" ht="15">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="27" t="s">
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" ht="15">
+      <c r="A42" s="66"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" ht="15">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" ht="15">
+      <c r="A43" s="66"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" ht="15">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="27" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" ht="15">
+      <c r="A44" s="66"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" ht="15">
-      <c r="A44" s="84"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="27" t="s">
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" ht="15">
+      <c r="A45" s="66"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" ht="15">
-      <c r="A45" s="84"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="27" t="s">
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" ht="15">
+      <c r="A46" s="66"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" ht="15">
-      <c r="A46" s="84"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="27" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" ht="105">
+      <c r="A47" s="66"/>
+      <c r="B47" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" ht="105">
-      <c r="A47" s="84"/>
-      <c r="B47" s="25" t="s">
+      <c r="C47" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="D47" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="E47" s="13">
         <v>2</v>
@@ -2822,199 +2850,294 @@
       <c r="Q47" s="21"/>
       <c r="R47" s="1"/>
       <c r="S47" s="31"/>
-      <c r="T47" s="81"/>
+      <c r="T47" s="59"/>
       <c r="U47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="82" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="D48" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="E48" s="63">
+        <v>2</v>
+      </c>
+      <c r="F48" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="64">
+        <v>44529</v>
+      </c>
+      <c r="H48" s="64">
+        <v>44532</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="64">
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="63">
         <v>2</v>
       </c>
-      <c r="F48" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G48" s="65">
-        <v>44529</v>
-      </c>
-      <c r="H48" s="65">
+      <c r="F50" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="64">
         <v>44532</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="74" t="s">
+      <c r="H50" s="64">
+        <v>44536</v>
+      </c>
+      <c r="I50" s="69"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" ht="30">
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="64">
-        <v>2</v>
-      </c>
-      <c r="F50" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="65">
-        <v>44532</v>
-      </c>
-      <c r="H50" s="65">
-        <v>44536</v>
-      </c>
-      <c r="I50" s="76"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" ht="30">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="24" t="s">
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21" ht="15">
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" ht="15">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="24" t="s">
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" ht="15">
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" ht="15">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
       <c r="U53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A5:A39"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="P5:P11"/>
+    <mergeCell ref="Q5:Q11"/>
+    <mergeCell ref="S5:S11"/>
+    <mergeCell ref="T5:T11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="J19:J25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="Q12:Q18"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="T12:T18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="O19:O25"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="Q19:Q25"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="T19:T25"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="O12:O18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="N32:N36"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="S32:S36"/>
+    <mergeCell ref="T32:T36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="M40:M46"/>
+    <mergeCell ref="N40:N46"/>
+    <mergeCell ref="O40:O46"/>
+    <mergeCell ref="A40:A53"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="J40:J46"/>
+    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="K50:K53"/>
     <mergeCell ref="P40:P46"/>
     <mergeCell ref="Q40:Q46"/>
     <mergeCell ref="S40:S46"/>
@@ -3039,101 +3162,6 @@
     <mergeCell ref="M50:M53"/>
     <mergeCell ref="N50:N53"/>
     <mergeCell ref="Q50:Q53"/>
-    <mergeCell ref="M40:M46"/>
-    <mergeCell ref="N40:N46"/>
-    <mergeCell ref="O40:O46"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="E40:E46"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="I40:I46"/>
-    <mergeCell ref="J40:J46"/>
-    <mergeCell ref="K40:K46"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="N32:N36"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="S32:S36"/>
-    <mergeCell ref="T32:T36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="Q12:Q18"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="T12:T18"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="O19:O25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="Q19:Q25"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="T19:T25"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="O12:O18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="J19:J25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A5:A39"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="Q5:Q11"/>
-    <mergeCell ref="S5:S11"/>
-    <mergeCell ref="T5:T11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="2">
@@ -3163,52 +3191,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25">
       <c r="A10" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25">
       <c r="A11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3244,14 +3272,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="B1" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="B2" s="89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -3265,21 +3293,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="171.75">
       <c r="B5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -3289,28 +3317,28 @@
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="B7" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="91"/>
       <c r="C8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="B9" s="91"/>
       <c r="C9" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="92"/>
       <c r="H9" s="16"/>
@@ -3318,7 +3346,7 @@
     <row r="10" spans="1:8" ht="14.25">
       <c r="B10" s="91"/>
       <c r="C10" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="92"/>
     </row>
@@ -3329,31 +3357,31 @@
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="16"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="28.5">
       <c r="B13" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>122</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.25">
       <c r="B14" s="87"/>
       <c r="C14" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
       <c r="B15" s="87"/>
       <c r="C15" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="16"/>
     </row>
@@ -3364,30 +3392,30 @@
     </row>
     <row r="17" spans="2:4" ht="28.5">
       <c r="B17" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="2:4" ht="14.25">
       <c r="B18" s="87"/>
       <c r="C18" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:4" ht="14.25">
       <c r="B19" s="87"/>
       <c r="C19" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="21" spans="2:4" ht="14.25">
       <c r="B21" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Java training plan .xlsx
+++ b/Java training plan .xlsx
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,65 +924,68 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +1002,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,7 +1359,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -1380,24 +1386,24 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="58"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="6"/>
@@ -1408,17 +1414,17 @@
         <f>SUM(E4:E53)</f>
         <v>16.75</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="5"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="58"/>
+      <c r="P2" s="62"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1453,13 +1459,13 @@
       <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="58"/>
+      <c r="P3" s="62"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -1470,10 +1476,10 @@
       <c r="A4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="58" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -1511,7 +1517,7 @@
       <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:25" ht="15">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="54" t="s">
@@ -1520,57 +1526,57 @@
       <c r="C5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="65">
         <v>0.75</v>
       </c>
       <c r="F5" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="66">
         <v>44510</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="67">
         <v>44510</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="16"/>
       <c r="M5" s="70"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="60"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="69"/>
       <c r="R5" s="16"/>
       <c r="S5" s="70"/>
-      <c r="T5" s="75"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="16"/>
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
@@ -1583,24 +1589,24 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15">
-      <c r="A7" s="84"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="16"/>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
@@ -1613,24 +1619,24 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15">
-      <c r="A8" s="84"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="16"/>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -1643,24 +1649,24 @@
       <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:25" ht="15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="95" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="16"/>
       <c r="M9" s="70"/>
       <c r="N9" s="70"/>
@@ -1673,22 +1679,22 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="16"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
@@ -1701,22 +1707,22 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="16"/>
       <c r="M11" s="70"/>
       <c r="N11" s="70"/>
@@ -1729,60 +1735,60 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="65">
         <v>1</v>
       </c>
       <c r="F12" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="66">
         <v>44510</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="67">
         <v>44511</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
       <c r="L12" s="16"/>
       <c r="M12" s="70"/>
       <c r="N12" s="70"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="60"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="75"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="71"/>
       <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:25" ht="15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="16"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
@@ -1790,27 +1796,27 @@
       <c r="P13" s="70"/>
       <c r="Q13" s="70"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:25" ht="15">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="16"/>
       <c r="M14" s="70"/>
       <c r="N14" s="70"/>
@@ -1818,27 +1824,27 @@
       <c r="P14" s="70"/>
       <c r="Q14" s="70"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:25" ht="15">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="16"/>
       <c r="M15" s="70"/>
       <c r="N15" s="70"/>
@@ -1846,27 +1852,27 @@
       <c r="P15" s="70"/>
       <c r="Q15" s="70"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:25" ht="15">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="16"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
@@ -1874,27 +1880,27 @@
       <c r="P16" s="70"/>
       <c r="Q16" s="70"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" ht="15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="16"/>
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
@@ -1902,27 +1908,27 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="70"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
       <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" ht="15">
-      <c r="A18" s="84"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="16"/>
       <c r="M18" s="70"/>
       <c r="N18" s="70"/>
@@ -1930,65 +1936,65 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="70"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" ht="15">
-      <c r="A19" s="84"/>
-      <c r="B19" s="79" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="65">
         <v>0.5</v>
       </c>
       <c r="F19" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="66">
         <v>44511</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="67">
         <v>44512</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="16"/>
       <c r="M19" s="70"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="60"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="69"/>
       <c r="R19" s="16"/>
       <c r="S19" s="70"/>
-      <c r="T19" s="75"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" ht="15">
-      <c r="A20" s="84"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="16"/>
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
@@ -2001,22 +2007,22 @@
       <c r="U20" s="17"/>
     </row>
     <row r="21" spans="1:21" ht="15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
       <c r="L21" s="16"/>
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
@@ -2029,22 +2035,22 @@
       <c r="U21" s="17"/>
     </row>
     <row r="22" spans="1:21" ht="15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
       <c r="L22" s="16"/>
       <c r="M22" s="70"/>
       <c r="N22" s="70"/>
@@ -2057,22 +2063,22 @@
       <c r="U22" s="17"/>
     </row>
     <row r="23" spans="1:21" ht="15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="16"/>
       <c r="M23" s="70"/>
       <c r="N23" s="70"/>
@@ -2085,22 +2091,22 @@
       <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="16"/>
       <c r="M24" s="70"/>
       <c r="N24" s="70"/>
@@ -2113,22 +2119,22 @@
       <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="15">
-      <c r="A25" s="84"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="16"/>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -2141,8 +2147,8 @@
       <c r="U25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="20" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2180,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="45">
-      <c r="A27" s="84"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="30">
-      <c r="A28" s="84"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
@@ -2250,7 +2256,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="30">
-      <c r="A29" s="84"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="18" t="s">
         <v>51</v>
       </c>
@@ -2287,7 +2293,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="30">
-      <c r="A30" s="84"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="18" t="s">
         <v>53</v>
       </c>
@@ -2324,7 +2330,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="30">
-      <c r="A31" s="84"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="9" t="s">
         <v>56</v>
       </c>
@@ -2361,60 +2367,60 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="15.75">
-      <c r="A32" s="84"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="83" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="65">
         <v>1</v>
       </c>
       <c r="F32" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G32" s="64">
+      <c r="G32" s="66">
         <v>44518</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="66">
         <v>44518</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="16"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="60"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="16"/>
       <c r="S32" s="70"/>
       <c r="T32" s="70"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.75">
-      <c r="A33" s="84"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
       <c r="L33" s="16"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70"/>
@@ -2427,22 +2433,22 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.75">
-      <c r="A34" s="84"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
       <c r="L34" s="16"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70"/>
@@ -2455,24 +2461,24 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15">
-      <c r="A35" s="84"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="63"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
       <c r="L35" s="16"/>
       <c r="M35" s="70"/>
       <c r="N35" s="70"/>
@@ -2485,24 +2491,24 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:21" ht="15">
-      <c r="A36" s="84"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="63"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="16"/>
       <c r="M36" s="70"/>
       <c r="N36" s="70"/>
@@ -2515,60 +2521,60 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" ht="15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="63"/>
+      <c r="B37" s="80" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="65">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="66">
         <v>44519</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="66">
         <v>44519</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="16"/>
       <c r="M37" s="70"/>
       <c r="N37" s="70"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="60"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="69"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:21" ht="15">
-      <c r="A38" s="84"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="16"/>
       <c r="M38" s="70"/>
       <c r="N38" s="70"/>
@@ -2576,27 +2582,27 @@
       <c r="P38" s="70"/>
       <c r="Q38" s="70"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:21" ht="15">
-      <c r="A39" s="84"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
       <c r="L39" s="16"/>
       <c r="M39" s="70"/>
       <c r="N39" s="70"/>
@@ -2604,220 +2610,220 @@
       <c r="P39" s="70"/>
       <c r="Q39" s="70"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="83" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="65">
         <v>2</v>
       </c>
       <c r="F40" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="66">
         <v>44522</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="66">
         <v>44523</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="60"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="69"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15">
-      <c r="A41" s="66"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:21" ht="15">
-      <c r="A42" s="66"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="61"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15">
-      <c r="A44" s="66"/>
-      <c r="B44" s="61"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="15">
-      <c r="A45" s="66"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
       <c r="U45" s="1"/>
     </row>
     <row r="46" spans="1:21" ht="15">
-      <c r="A46" s="66"/>
-      <c r="B46" s="61"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
       <c r="U46" s="1"/>
     </row>
     <row r="47" spans="1:21" ht="105">
-      <c r="A47" s="66"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="25" t="s">
         <v>82</v>
       </c>
@@ -2850,199 +2856,294 @@
       <c r="Q47" s="21"/>
       <c r="R47" s="1"/>
       <c r="S47" s="31"/>
-      <c r="T47" s="59"/>
+      <c r="T47" s="82"/>
       <c r="U47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="61" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="83" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="65">
         <v>2</v>
       </c>
       <c r="F48" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="66">
         <v>44529</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="66">
         <v>44532</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="60"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="69"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
       <c r="U48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="85"/>
+      <c r="B50" s="87" t="s">
         <v>89</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="65">
         <v>2</v>
       </c>
       <c r="F50" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="66">
         <v>44532</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="66">
         <v>44536</v>
       </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="60"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="69"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="30">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="15">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="14" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
       <c r="U53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="P40:P46"/>
+    <mergeCell ref="Q40:Q46"/>
+    <mergeCell ref="S40:S46"/>
+    <mergeCell ref="T40:T53"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="P48:P53"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="S48:S53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="Q50:Q53"/>
+    <mergeCell ref="M40:M46"/>
+    <mergeCell ref="N40:N46"/>
+    <mergeCell ref="O40:O46"/>
+    <mergeCell ref="A40:A53"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="J40:J46"/>
+    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="N32:N36"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="S32:S36"/>
+    <mergeCell ref="T32:T36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="Q12:Q18"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="T12:T18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="O19:O25"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="Q19:Q25"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="T19:T25"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="O12:O18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="J19:J25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="M19:M25"/>
     <mergeCell ref="F1:I2"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="L1:O1"/>
@@ -3067,101 +3168,6 @@
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="E12:E18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="J19:J25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="Q12:Q18"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="T12:T18"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="O19:O25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="Q19:Q25"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="T19:T25"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="O12:O18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="N32:N36"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="S32:S36"/>
-    <mergeCell ref="T32:T36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="M40:M46"/>
-    <mergeCell ref="N40:N46"/>
-    <mergeCell ref="O40:O46"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="E40:E46"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="I40:I46"/>
-    <mergeCell ref="J40:J46"/>
-    <mergeCell ref="K40:K46"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="P40:P46"/>
-    <mergeCell ref="Q40:Q46"/>
-    <mergeCell ref="S40:S46"/>
-    <mergeCell ref="T40:T53"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="P48:P53"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="S48:S53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="Q50:Q53"/>
   </mergeCells>
   <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="2">
@@ -3271,18 +3277,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="C3" s="14"/>
@@ -3311,12 +3317,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3327,28 +3333,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="93" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="B9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="B10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="93"/>
     </row>
     <row r="11" spans="1:8" ht="14.25">
       <c r="B11" s="16"/>
@@ -3363,7 +3369,7 @@
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="28.5">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="88" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -3372,14 +3378,14 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="38" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="B15" s="87"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="38" t="s">
         <v>117</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" ht="28.5">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
         <v>123</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -3400,14 +3406,14 @@
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="2:4" ht="14.25">
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:4" ht="14.25">
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="38" t="s">
         <v>126</v>
       </c>
